--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/3sstudio/Desktop/Projektipaja 82/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A08B81-3F0C-D548-BBD7-979BB829E95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EFDAA2-DE1E-424A-B32C-0DFEA8ECFABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="4000" windowWidth="21800" windowHeight="13100" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
+    <workbookView xWindow="4620" yWindow="980" windowWidth="21800" windowHeight="13100" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Media+design</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Making the schedule</t>
   </si>
   <si>
-    <t>Test posts + layouts for tests</t>
-  </si>
-  <si>
-    <t>CSS root file</t>
-  </si>
-  <si>
     <t>Presentation - Esa and Ira/project plan</t>
   </si>
   <si>
@@ -137,6 +131,15 @@
   </si>
   <si>
     <t>Final reflection</t>
+  </si>
+  <si>
+    <t>CSS root file - finish css</t>
+  </si>
+  <si>
+    <t>Test posts + layouts for tests - one more layout (dragabble) + no test posts</t>
+  </si>
+  <si>
+    <t>Trying to contact Mari again</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +180,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -196,14 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,22 +514,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9523404-C354-460E-A446-8317BAA512B7}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="2" max="2" width="60.5" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44804</v>
       </c>
@@ -555,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44811</v>
       </c>
@@ -566,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44818</v>
       </c>
@@ -577,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44825</v>
       </c>
@@ -591,143 +587,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44832</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44839</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44846</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44853</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44860</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44867</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44874</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44881</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44888</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44895</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44902</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/3sstudio/Desktop/Projektipaja 82/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EFDAA2-DE1E-424A-B32C-0DFEA8ECFABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9712B06-719F-9D46-A554-48DFEA040EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="980" windowWidth="21800" windowHeight="13100" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="28760" windowHeight="13100" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
-  <si>
-    <t>Media+design</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Technical</t>
   </si>
@@ -64,39 +61,21 @@
     <t>Zoom info</t>
   </si>
   <si>
-    <t>Today</t>
-  </si>
-  <si>
     <t>Making the schedule</t>
   </si>
   <si>
     <t>Presentation - Esa and Ira/project plan</t>
   </si>
   <si>
-    <t>Posting first advertisements/Show poster draft</t>
-  </si>
-  <si>
-    <t>Html pages for tests</t>
-  </si>
-  <si>
     <t>Submit project plan</t>
   </si>
   <si>
     <t>2. hatchery circle</t>
   </si>
   <si>
-    <t>3 more advertisments / Poster final version</t>
-  </si>
-  <si>
-    <t>JS implementation</t>
-  </si>
-  <si>
     <t>Submit poster</t>
   </si>
   <si>
-    <t>POSTER PRESENTATION / ADVERTISEMENT PRESENTATION</t>
-  </si>
-  <si>
     <t>TECHNICAL PRESENTATION</t>
   </si>
   <si>
@@ -136,10 +115,49 @@
     <t>CSS root file - finish css</t>
   </si>
   <si>
-    <t>Test posts + layouts for tests - one more layout (dragabble) + no test posts</t>
-  </si>
-  <si>
     <t>Trying to contact Mari again</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Test posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> layouts for tests - one more layout (dragabble) + no test posts</t>
+  </si>
+  <si>
+    <t>Show poster draft</t>
+  </si>
+  <si>
+    <t>Posting first advertisements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poster final version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 more advertisments </t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>POSTER PRESENTATION</t>
+  </si>
+  <si>
+    <t>ADVERTISEMENT PRESENTATION</t>
+  </si>
+  <si>
+    <t>Mari said that everything is WIP - meeting at 26.10.</t>
+  </si>
+  <si>
+    <t>Meeting Mari 3041 - 14:15-15:30</t>
+  </si>
+  <si>
+    <t>JS implementation - add question JS???</t>
+  </si>
+  <si>
+    <t>Html pages for tests - Multiple choice, mobile responsive?</t>
   </si>
 </sst>
 </file>
@@ -155,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -193,13 +217,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,226 +540,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9523404-C354-460E-A446-8317BAA512B7}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="60.5" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44804</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1"/>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44811</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44818</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44825</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44832</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44839</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44846</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44853</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44860</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44867</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44874</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44881</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44888</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44895</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44902</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -750,17 +806,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d44f2a2d-0112-41e8-8b81-35125d37fcf1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d27d57b7-d6f4-45fb-811e-dd80f027c1f1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010087C29BC283A22A4B8DEDC3B4BA9FEE47" ma:contentTypeVersion="9" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="c4cd203d039ac21dcb583baa6346441b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d27d57b7-d6f4-45fb-811e-dd80f027c1f1" xmlns:ns3="d44f2a2d-0112-41e8-8b81-35125d37fcf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e326f46599a386d351f9bf52f53919f9" ns2:_="" ns3:_="">
     <xsd:import namespace="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
@@ -943,6 +988,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d44f2a2d-0112-41e8-8b81-35125d37fcf1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d27d57b7-d6f4-45fb-811e-dd80f027c1f1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B23CCC-3D16-47E2-B3AE-6912B477885A}">
   <ds:schemaRefs>
@@ -952,23 +1008,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5417D7E-4C03-4D7D-B4C1-9CE5FC7BFA31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d44f2a2d-0112-41e8-8b81-35125d37fcf1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27252128-86D2-489A-A4FB-E95C468FE8C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -985,4 +1024,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5417D7E-4C03-4D7D-B4C1-9CE5FC7BFA31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d44f2a2d-0112-41e8-8b81-35125d37fcf1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/3sstudio/Desktop/Projektipaja 82/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9712B06-719F-9D46-A554-48DFEA040EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC944A87-1623-7549-887F-FA63EEFF5213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="28760" windowHeight="13100" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
+    <workbookView xWindow="-240" yWindow="1340" windowWidth="28760" windowHeight="13100" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Test posts</t>
-  </si>
-  <si>
     <t xml:space="preserve"> layouts for tests - one more layout (dragabble) + no test posts</t>
   </si>
   <si>
@@ -148,16 +145,19 @@
     <t>ADVERTISEMENT PRESENTATION</t>
   </si>
   <si>
-    <t>Mari said that everything is WIP - meeting at 26.10.</t>
-  </si>
-  <si>
     <t>Meeting Mari 3041 - 14:15-15:30</t>
   </si>
   <si>
-    <t>JS implementation - add question JS???</t>
-  </si>
-  <si>
-    <t>Html pages for tests - Multiple choice, mobile responsive?</t>
+    <t>Html pages for tests - It's ok but we should test out it a little more</t>
+  </si>
+  <si>
+    <t>JS implementation - add question JS??? We need to create question submission and generation</t>
+  </si>
+  <si>
+    <t>Mari said that everything is WIP - meeting at 26.10.!!!</t>
+  </si>
+  <si>
+    <t>Test posts - done but not up to our standarts</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +204,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -217,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -225,7 +237,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,18 +557,19 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="33" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
     <col min="3" max="3" width="60.5" customWidth="1"/>
-    <col min="4" max="4" width="62" customWidth="1"/>
+    <col min="4" max="4" width="79.1640625" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -562,7 +577,7 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -620,11 +635,11 @@
       <c r="A6" s="1">
         <v>44832</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>25</v>
@@ -638,13 +653,13 @@
         <v>44839</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>10</v>
@@ -655,24 +670,24 @@
       <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>37</v>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44846</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -687,16 +702,16 @@
         <v>44860</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
+      <c r="E10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -806,6 +821,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d44f2a2d-0112-41e8-8b81-35125d37fcf1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d27d57b7-d6f4-45fb-811e-dd80f027c1f1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010087C29BC283A22A4B8DEDC3B4BA9FEE47" ma:contentTypeVersion="9" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="c4cd203d039ac21dcb583baa6346441b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d27d57b7-d6f4-45fb-811e-dd80f027c1f1" xmlns:ns3="d44f2a2d-0112-41e8-8b81-35125d37fcf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e326f46599a386d351f9bf52f53919f9" ns2:_="" ns3:_="">
     <xsd:import namespace="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
@@ -988,17 +1014,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d44f2a2d-0112-41e8-8b81-35125d37fcf1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d27d57b7-d6f4-45fb-811e-dd80f027c1f1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B23CCC-3D16-47E2-B3AE-6912B477885A}">
   <ds:schemaRefs>
@@ -1008,6 +1023,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5417D7E-4C03-4D7D-B4C1-9CE5FC7BFA31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d44f2a2d-0112-41e8-8b81-35125d37fcf1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27252128-86D2-489A-A4FB-E95C468FE8C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1024,21 +1056,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5417D7E-4C03-4D7D-B4C1-9CE5FC7BFA31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d44f2a2d-0112-41e8-8b81-35125d37fcf1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/3sstudio/Desktop/Projektipaja 82/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC944A87-1623-7549-887F-FA63EEFF5213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F80270-148E-1F43-8B3A-6654F474F1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="1340" windowWidth="28760" windowHeight="13100" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
+    <workbookView xWindow="3940" yWindow="2380" windowWidth="28760" windowHeight="16700" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,13 +151,13 @@
     <t>Html pages for tests - It's ok but we should test out it a little more</t>
   </si>
   <si>
-    <t>JS implementation - add question JS??? We need to create question submission and generation</t>
-  </si>
-  <si>
     <t>Mari said that everything is WIP - meeting at 26.10.!!!</t>
   </si>
   <si>
     <t>Test posts - done but not up to our standarts</t>
+  </si>
+  <si>
+    <t>JS implementation - add question JS??? Question generation test - finished - what is deployment platform?</t>
   </si>
 </sst>
 </file>
@@ -229,16 +229,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -556,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9523404-C354-460E-A446-8317BAA512B7}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -565,7 +564,7 @@
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="53.5" customWidth="1"/>
     <col min="3" max="3" width="60.5" customWidth="1"/>
-    <col min="4" max="4" width="79.1640625" customWidth="1"/>
+    <col min="4" max="4" width="85.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
@@ -591,10 +590,10 @@
         <v>44804</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -603,10 +602,10 @@
         <v>44811</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -615,10 +614,10 @@
         <v>44818</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -627,7 +626,7 @@
         <v>44825</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -635,16 +634,16 @@
       <c r="A6" s="1">
         <v>44832</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -652,50 +651,50 @@
       <c r="A7" s="1">
         <v>44839</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
+      <c r="H7" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44846</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44853</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -821,17 +820,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d44f2a2d-0112-41e8-8b81-35125d37fcf1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d27d57b7-d6f4-45fb-811e-dd80f027c1f1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010087C29BC283A22A4B8DEDC3B4BA9FEE47" ma:contentTypeVersion="9" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="c4cd203d039ac21dcb583baa6346441b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d27d57b7-d6f4-45fb-811e-dd80f027c1f1" xmlns:ns3="d44f2a2d-0112-41e8-8b81-35125d37fcf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e326f46599a386d351f9bf52f53919f9" ns2:_="" ns3:_="">
     <xsd:import namespace="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
@@ -1014,6 +1002,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d44f2a2d-0112-41e8-8b81-35125d37fcf1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d27d57b7-d6f4-45fb-811e-dd80f027c1f1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B23CCC-3D16-47E2-B3AE-6912B477885A}">
   <ds:schemaRefs>
@@ -1023,23 +1022,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5417D7E-4C03-4D7D-B4C1-9CE5FC7BFA31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d44f2a2d-0112-41e8-8b81-35125d37fcf1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27252128-86D2-489A-A4FB-E95C468FE8C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1056,4 +1038,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5417D7E-4C03-4D7D-B4C1-9CE5FC7BFA31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d44f2a2d-0112-41e8-8b81-35125d37fcf1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/3sstudio/Desktop/Projektipaja 82/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F80270-148E-1F43-8B3A-6654F474F1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF76394-67DF-734F-B445-31DF86D6884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="2380" windowWidth="28760" windowHeight="16700" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="28760" windowHeight="16020" xr2:uid="{8F899438-28AE-483D-9ACE-835FB7229E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Technical</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Making posts</t>
   </si>
   <si>
-    <t>Wordpress implementation</t>
-  </si>
-  <si>
     <t>3. hatchery circle</t>
   </si>
   <si>
@@ -94,15 +91,9 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Final presentation</t>
-  </si>
-  <si>
     <t>Active instagram, facebook and linkedin accounts with advertisments</t>
   </si>
   <si>
-    <t>Wordpress any other framework test plugin</t>
-  </si>
-  <si>
     <t>Final presentation presenting</t>
   </si>
   <si>
@@ -158,6 +149,39 @@
   </si>
   <si>
     <t>JS implementation - add question JS??? Question generation test - finished - what is deployment platform?</t>
+  </si>
+  <si>
+    <t>Teaser posts - over the top - catches eye</t>
+  </si>
+  <si>
+    <t>Explain - what are the 5 competencies</t>
+  </si>
+  <si>
+    <t>Hype it up - even more - countdown</t>
+  </si>
+  <si>
+    <t>Explain what is sincoe</t>
+  </si>
+  <si>
+    <t>Database implementation</t>
+  </si>
+  <si>
+    <t>Admin pages and test pages</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Progress presentation teaser posts min 3 posts</t>
+  </si>
+  <si>
+    <t>Wordpress research - how to implement data presentation</t>
+  </si>
+  <si>
+    <t>Start creating report and presentation</t>
+  </si>
+  <si>
+    <t>Final presentation - prepare presentation, focus on success, Leo and Marmik</t>
   </si>
 </sst>
 </file>
@@ -206,13 +230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -237,8 +261,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9523404-C354-460E-A446-8317BAA512B7}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -634,14 +662,14 @@
       <c r="A6" s="1">
         <v>44832</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
@@ -652,13 +680,13 @@
         <v>44839</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
@@ -667,10 +695,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -678,13 +706,13 @@
         <v>44846</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
@@ -700,68 +728,79 @@
       <c r="A10" s="1">
         <v>44860</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44867</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44874</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44881</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44888</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
+      <c r="B14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -770,31 +809,33 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44902</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -820,6 +861,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d44f2a2d-0112-41e8-8b81-35125d37fcf1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d27d57b7-d6f4-45fb-811e-dd80f027c1f1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010087C29BC283A22A4B8DEDC3B4BA9FEE47" ma:contentTypeVersion="9" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="c4cd203d039ac21dcb583baa6346441b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d27d57b7-d6f4-45fb-811e-dd80f027c1f1" xmlns:ns3="d44f2a2d-0112-41e8-8b81-35125d37fcf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e326f46599a386d351f9bf52f53919f9" ns2:_="" ns3:_="">
     <xsd:import namespace="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
@@ -1002,17 +1054,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d44f2a2d-0112-41e8-8b81-35125d37fcf1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d27d57b7-d6f4-45fb-811e-dd80f027c1f1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B23CCC-3D16-47E2-B3AE-6912B477885A}">
   <ds:schemaRefs>
@@ -1022,6 +1063,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5417D7E-4C03-4D7D-B4C1-9CE5FC7BFA31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d44f2a2d-0112-41e8-8b81-35125d37fcf1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27252128-86D2-489A-A4FB-E95C468FE8C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1038,21 +1096,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5417D7E-4C03-4D7D-B4C1-9CE5FC7BFA31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d27d57b7-d6f4-45fb-811e-dd80f027c1f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d44f2a2d-0112-41e8-8b81-35125d37fcf1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>